--- a/biology/Médecine/Pierre-Jean_Auvity/Pierre-Jean_Auvity.xlsx
+++ b/biology/Médecine/Pierre-Jean_Auvity/Pierre-Jean_Auvity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Jean Auvity, né à Paris le 11 mars 1779 et mort le 14 avril 1865 à Paris 8e, est un chirurgien français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre-Jean est le fils de Jean-Abraham Auvity, chirurgien, et le frère du chirurgien Ambroise-Philibert-Léon Auvity[1].
-Docteur en médecine de la faculté de Paris en 1808, il est médecin du futur roi Charles X, par quartier[Quoi ?], puis médecin de la duchesse de Berry et des enfants du roi Louis-Philippe Ier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-Jean est le fils de Jean-Abraham Auvity, chirurgien, et le frère du chirurgien Ambroise-Philibert-Léon Auvity.
+Docteur en médecine de la faculté de Paris en 1808, il est médecin du futur roi Charles X, par quartier[Quoi ?], puis médecin de la duchesse de Berry et des enfants du roi Louis-Philippe Ier.
 Il est médecin de la 1re légion de la Garde nationale et chirurgien en chef de l'hospice de la maternité de Paris[réf. nécessaire].
 Il est mort chez lui, rue de Castellane, à l'âge de 86 ans.
 </t>
@@ -545,7 +559,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier de la Légion d'honneur (1822).</t>
         </is>
